--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1170551.671948899</v>
+        <v>1123769.064312276</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396491</v>
+        <v>625948.6630396495</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>213.9152309627403</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>172.8578264891721</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>111.3408864782658</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>110.1458031968976</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.6788446020113</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1110,7 +1110,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>234.4053629237957</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>267.0500987972739</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>104.5113366705975</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>101.242562417148</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>54.11133352146472</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>54.42397186352294</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>26.64360395382512</v>
+        <v>39.30447282260396</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.1916198885552</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.275596830496657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>321.7064610691117</v>
       </c>
       <c r="G17" t="n">
-        <v>339.039918580681</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>20.93390375121407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>43.9770614653945</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>248.3805244599228</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.72101765531074</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>110.0144451368844</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>294.9531613387161</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188825</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>21.16194104885111</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>185.967646704179</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>18.44902381826981</v>
       </c>
       <c r="S26" t="n">
-        <v>6.83649558157544</v>
+        <v>144.9433871453942</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
         <v>251.1782820837292</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.4566691601176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,13 +2730,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676064</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>63.30129965805899</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.1874533844987</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>62.08290512181554</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.55762244236376</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.11061241409715</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>324.8852170424811</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>266.3168953950959</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>53.55762244236376</v>
       </c>
       <c r="H34" t="n">
-        <v>52.37844821257649</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>154.5444678229457</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>129.8188433654458</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>158.6875346927088</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>13.55752015771517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>17.7732144415493</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>322.6568270576442</v>
+        <v>196.8904747050316</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.1829765099999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>158.8468068071336</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>119.1269344771387</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.2106022137938</v>
@@ -3790,22 +3790,22 @@
         <v>18.44902381826981</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>180.8585516514372</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.55762244236377</v>
+        <v>130.1163089513942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>103.2275216117207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>204.6872692247978</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
         <v>129.8188433654458</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.55762244236374</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>114.1158076895348</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.683332757143</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2291.339048722308</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2037.577263360399</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2037.577263360399</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1684.808608090285</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1311.342849829206</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757143</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.24122488254</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757897</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>576.1872736775454</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>165.2013688879378</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>165.2013688879378</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>65.7397945496688</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2344.380435748108</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.5099885583417</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036444</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036444</v>
@@ -5041,16 +5041,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
         <v>1836.345445977174</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2286.093401624031</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>2286.093401624031</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982752</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.1098286224635</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="J12" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>323.2572191628418</v>
+        <v>108.9166907734179</v>
       </c>
       <c r="C13" t="n">
-        <v>323.2572191628418</v>
+        <v>108.9166907734179</v>
       </c>
       <c r="D13" t="n">
-        <v>323.2572191628418</v>
+        <v>108.9166907734179</v>
       </c>
       <c r="E13" t="n">
-        <v>323.2572191628418</v>
+        <v>108.9166907734179</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5993065148976</v>
+        <v>108.9166907734179</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036444</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>323.2572191628418</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>323.2572191628418</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>323.2572191628418</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W13" t="n">
-        <v>323.2572191628418</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X13" t="n">
-        <v>323.2572191628418</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y13" t="n">
-        <v>323.2572191628418</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036444</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2615.207670282225</v>
+        <v>2657.447603318622</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>2013.546485980901</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036444</v>
@@ -5360,46 +5360,46 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810045</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810045</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D16" t="n">
-        <v>108.9687959810045</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9687959810045</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9687959810045</v>
+        <v>191.5102746370868</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036444</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810045</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978288</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431126</v>
+        <v>764.6872557005397</v>
       </c>
       <c r="E17" t="n">
-        <v>807.3934508328821</v>
+        <v>378.8990031022955</v>
       </c>
       <c r="F17" t="n">
-        <v>396.4075460432745</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036444</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.00975904241</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.317569050019</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.0883391448231</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036444</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>295.8809182883532</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.0883391448231</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.157102157134</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C20" t="n">
-        <v>823.1945852167225</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
         <v>464.928886609972</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2652.727816810753</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2652.727816810753</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2652.727816810753</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2652.727816810753</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="V20" t="n">
-        <v>2321.664929467182</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="W20" t="n">
-        <v>1968.896274197068</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="X20" t="n">
-        <v>1968.896274197068</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.756942221256</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2173.079728044488</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044488</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.289477224979</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>2683.289477224979</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V22" t="n">
-        <v>2683.289477224979</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W22" t="n">
-        <v>2393.872307188018</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>2393.872307188018</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>2173.079728044488</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1291.344466900189</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="C23" t="n">
-        <v>922.3819499597773</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D23" t="n">
-        <v>564.1162513530269</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E23" t="n">
-        <v>178.3279987547826</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F23" t="n">
-        <v>67.2022965963135</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G23" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H23" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I23" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375316</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q23" t="n">
         <v>3360.114829815675</v>
@@ -6019,22 +6019,22 @@
         <v>3341.479452221463</v>
       </c>
       <c r="T23" t="n">
-        <v>3125.380939814887</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U23" t="n">
-        <v>3125.380939814887</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="V23" t="n">
-        <v>2794.318052471317</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="W23" t="n">
-        <v>2441.549397201202</v>
+        <v>2789.831529572529</v>
       </c>
       <c r="X23" t="n">
-        <v>2068.083638940122</v>
+        <v>2416.365771311449</v>
       </c>
       <c r="Y23" t="n">
-        <v>1677.944306964311</v>
+        <v>2026.226439335637</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H24" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K24" t="n">
         <v>109.688810964315</v>
       </c>
       <c r="L24" t="n">
-        <v>580.2716556992012</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M24" t="n">
-        <v>1181.398861186278</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.14312848023</v>
+        <v>1760.597172667077</v>
       </c>
       <c r="O24" t="n">
-        <v>2326.564838176616</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P24" t="n">
         <v>2667.279412613341</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.2022965963135</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="C25" t="n">
-        <v>67.2022965963135</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="D25" t="n">
-        <v>67.2022965963135</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="E25" t="n">
-        <v>67.2022965963135</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="F25" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G25" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H25" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I25" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J25" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K25" t="n">
         <v>153.097154149067</v>
@@ -6168,31 +6168,31 @@
         <v>954.56199835287</v>
       </c>
       <c r="Q25" t="n">
-        <v>946.9066183890429</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R25" t="n">
-        <v>946.9066183890429</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S25" t="n">
-        <v>946.9066183890429</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T25" t="n">
-        <v>946.9066183890429</v>
+        <v>933.1863003237274</v>
       </c>
       <c r="U25" t="n">
-        <v>946.9066183890429</v>
+        <v>933.1863003237274</v>
       </c>
       <c r="V25" t="n">
-        <v>946.9066183890429</v>
+        <v>933.1863003237274</v>
       </c>
       <c r="W25" t="n">
-        <v>657.4894483520823</v>
+        <v>933.1863003237274</v>
       </c>
       <c r="X25" t="n">
-        <v>469.6433405700833</v>
+        <v>933.1863003237274</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.8507614265532</v>
+        <v>712.3937211801973</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1246.821991766053</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="C26" t="n">
-        <v>877.8594748256412</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D26" t="n">
-        <v>519.5937762188908</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E26" t="n">
-        <v>519.5937762188908</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F26" t="n">
-        <v>519.5937762188908</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G26" t="n">
-        <v>519.5937762188908</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H26" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I26" t="n">
         <v>67.2022965963135</v>
@@ -6229,7 +6229,7 @@
         <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726749</v>
+        <v>597.645382172675</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6253,25 +6253,25 @@
         <v>3341.479452221463</v>
       </c>
       <c r="S26" t="n">
-        <v>3334.573901128962</v>
+        <v>3195.071990458438</v>
       </c>
       <c r="T26" t="n">
-        <v>3334.573901128962</v>
+        <v>2978.973478051863</v>
       </c>
       <c r="U26" t="n">
-        <v>3080.858464680751</v>
+        <v>2725.258041603652</v>
       </c>
       <c r="V26" t="n">
-        <v>2749.79557733718</v>
+        <v>2394.195154260081</v>
       </c>
       <c r="W26" t="n">
-        <v>2397.026922067066</v>
+        <v>2041.426498989967</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.561163805986</v>
+        <v>1667.960740728887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1633.421831830175</v>
+        <v>1667.960740728887</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>67.2022965963135</v>
       </c>
       <c r="K27" t="n">
-        <v>109.688810964315</v>
+        <v>215.2982821430959</v>
       </c>
       <c r="L27" t="n">
-        <v>526.7256998860481</v>
+        <v>318.7491850275576</v>
       </c>
       <c r="M27" t="n">
-        <v>1127.852905373125</v>
+        <v>919.8763905146344</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="C28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="D28" t="n">
-        <v>841.9795042517411</v>
+        <v>530.7452563499575</v>
       </c>
       <c r="E28" t="n">
-        <v>694.066410669348</v>
+        <v>382.8321627675643</v>
       </c>
       <c r="F28" t="n">
-        <v>547.1764631714376</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G28" t="n">
-        <v>378.4365444980971</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H28" t="n">
-        <v>222.9987555068442</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I28" t="n">
-        <v>94.48519273445557</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J28" t="n">
         <v>67.2022965963135</v>
@@ -6411,25 +6411,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S28" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="T28" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="U28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="V28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="W28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="X28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.56199835287</v>
+        <v>680.8618957622932</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1507.442979306765</v>
+        <v>1912.466004340323</v>
       </c>
       <c r="C29" t="n">
-        <v>1138.480462366353</v>
+        <v>1543.503487399911</v>
       </c>
       <c r="D29" t="n">
-        <v>780.2147637596024</v>
+        <v>1185.237788793161</v>
       </c>
       <c r="E29" t="n">
-        <v>609.3183461995027</v>
+        <v>799.4495361949166</v>
       </c>
       <c r="F29" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3324414098951</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H29" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I29" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L29" t="n">
         <v>1104.574328908085</v>
@@ -6493,22 +6493,22 @@
         <v>3341.479452221463</v>
       </c>
       <c r="T29" t="n">
-        <v>3341.479452221463</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="U29" t="n">
-        <v>3341.479452221463</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="V29" t="n">
-        <v>3010.416564877892</v>
+        <v>3125.380939814887</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.647909607778</v>
+        <v>3062.670934641336</v>
       </c>
       <c r="X29" t="n">
-        <v>2284.182151346698</v>
+        <v>2689.205176380256</v>
       </c>
       <c r="Y29" t="n">
-        <v>1894.042819370886</v>
+        <v>2299.065844404445</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>109.688810964315</v>
       </c>
       <c r="L30" t="n">
-        <v>526.7256998860481</v>
+        <v>580.2716556992012</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.852905373125</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.597172667077</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.018882363463</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P30" t="n">
         <v>2667.279412613341</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="C31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="D31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="E31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="F31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="G31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J31" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K31" t="n">
-        <v>2558.649985611872</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L31" t="n">
-        <v>2724.092265317943</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M31" t="n">
-        <v>2908.917075643208</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N31" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O31" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T31" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U31" t="n">
-        <v>3070.955394829606</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.955394829606</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W31" t="n">
-        <v>2781.538224792645</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X31" t="n">
-        <v>2693.547707202648</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="Y31" t="n">
-        <v>2472.755128059118</v>
+        <v>121.3009051239537</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1253.727542858553</v>
+        <v>1860.211634576879</v>
       </c>
       <c r="C32" t="n">
-        <v>884.7650259181416</v>
+        <v>1491.249117636467</v>
       </c>
       <c r="D32" t="n">
-        <v>526.4993273113912</v>
+        <v>1132.983419029717</v>
       </c>
       <c r="E32" t="n">
-        <v>198.3324414098951</v>
+        <v>747.1951664314724</v>
       </c>
       <c r="F32" t="n">
-        <v>198.3324414098951</v>
+        <v>336.2092616418649</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I32" t="n">
         <v>67.2022965963135</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908085</v>
@@ -6733,19 +6733,19 @@
         <v>3341.479452221463</v>
       </c>
       <c r="U32" t="n">
-        <v>3087.764015773252</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V32" t="n">
-        <v>2756.701128429681</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.932473159567</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="X32" t="n">
-        <v>2030.466714898487</v>
+        <v>2636.950806616812</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.327382922675</v>
+        <v>2246.811474641001</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>67.2022965963135</v>
       </c>
       <c r="K33" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L33" t="n">
-        <v>580.2716556992012</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M33" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522564</v>
       </c>
       <c r="O33" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P33" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3139.322250672145</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="C34" t="n">
-        <v>3139.322250672145</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="D34" t="n">
-        <v>2989.205611259809</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="E34" t="n">
-        <v>2841.292517677416</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="F34" t="n">
-        <v>2694.402570179506</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="G34" t="n">
-        <v>2525.662651506165</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J34" t="n">
-        <v>2472.755128059118</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K34" t="n">
-        <v>2558.649985611872</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L34" t="n">
-        <v>2724.092265317943</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M34" t="n">
-        <v>2908.917075643208</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N34" t="n">
-        <v>3094.781781504555</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O34" t="n">
-        <v>3250.4416249274</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T34" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U34" t="n">
-        <v>3360.114829815675</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V34" t="n">
-        <v>3360.114829815675</v>
+        <v>410.7180751609143</v>
       </c>
       <c r="W34" t="n">
-        <v>3360.114829815675</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="X34" t="n">
-        <v>3360.114829815675</v>
+        <v>121.3009051239537</v>
       </c>
       <c r="Y34" t="n">
-        <v>3139.322250672145</v>
+        <v>121.3009051239537</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1733.752380287342</v>
+        <v>1937.559085472239</v>
       </c>
       <c r="C35" t="n">
-        <v>1733.752380287342</v>
+        <v>1568.596568531827</v>
       </c>
       <c r="D35" t="n">
-        <v>1733.752380287342</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E35" t="n">
-        <v>1347.964127689098</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F35" t="n">
-        <v>936.9782228994906</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G35" t="n">
-        <v>519.5937762188908</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H35" t="n">
         <v>198.3324414098951</v>
@@ -6970,19 +6970,19 @@
         <v>3341.479452221463</v>
       </c>
       <c r="U35" t="n">
-        <v>3181.189013137919</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="V35" t="n">
-        <v>2850.126125794348</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="W35" t="n">
-        <v>2497.357470524234</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="X35" t="n">
-        <v>2123.891712263154</v>
+        <v>2714.298257512172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1733.752380287342</v>
+        <v>2324.158925536361</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K36" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L36" t="n">
-        <v>580.2716556992012</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M36" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.14312848023</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O36" t="n">
-        <v>2326.564838176616</v>
+        <v>2198.461726735106</v>
       </c>
       <c r="P36" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3105.430341609789</v>
+        <v>534.1682125189493</v>
       </c>
       <c r="C37" t="n">
-        <v>3105.430341609789</v>
+        <v>365.2320295910424</v>
       </c>
       <c r="D37" t="n">
-        <v>3091.735876804016</v>
+        <v>215.1153901787066</v>
       </c>
       <c r="E37" t="n">
-        <v>2943.822783221623</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F37" t="n">
-        <v>2796.932835723712</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G37" t="n">
-        <v>2628.192917050372</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K37" t="n">
-        <v>2558.649985611872</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L37" t="n">
-        <v>2724.092265317943</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M37" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N37" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O37" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S37" t="n">
-        <v>3360.114829815675</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T37" t="n">
-        <v>3360.114829815675</v>
+        <v>936.6092564927192</v>
       </c>
       <c r="U37" t="n">
-        <v>3360.114829815675</v>
+        <v>936.6092564927192</v>
       </c>
       <c r="V37" t="n">
-        <v>3105.430341609789</v>
+        <v>936.6092564927192</v>
       </c>
       <c r="W37" t="n">
-        <v>3105.430341609789</v>
+        <v>936.6092564927192</v>
       </c>
       <c r="X37" t="n">
-        <v>3105.430341609789</v>
+        <v>936.6092564927192</v>
       </c>
       <c r="Y37" t="n">
-        <v>3105.430341609789</v>
+        <v>715.816677349189</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2075.192343236261</v>
+        <v>1639.626599271515</v>
       </c>
       <c r="C38" t="n">
-        <v>1706.229826295849</v>
+        <v>1639.626599271515</v>
       </c>
       <c r="D38" t="n">
-        <v>1347.964127689098</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E38" t="n">
-        <v>1347.964127689098</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F38" t="n">
-        <v>936.9782228994906</v>
+        <v>484.5867432769133</v>
       </c>
       <c r="G38" t="n">
-        <v>519.5937762188908</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I38" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726753</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L38" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M38" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N38" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O38" t="n">
         <v>2758.834606696547</v>
       </c>
       <c r="P38" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775582</v>
       </c>
       <c r="Q38" t="n">
         <v>3360.114829815675</v>
       </c>
       <c r="R38" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S38" t="n">
-        <v>3360.114829815675</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T38" t="n">
-        <v>3144.0163174091</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U38" t="n">
-        <v>3144.0163174091</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V38" t="n">
-        <v>2818.100330482187</v>
+        <v>3142.600184842643</v>
       </c>
       <c r="W38" t="n">
-        <v>2465.331675212072</v>
+        <v>2789.831529572529</v>
       </c>
       <c r="X38" t="n">
-        <v>2465.331675212072</v>
+        <v>2416.365771311449</v>
       </c>
       <c r="Y38" t="n">
-        <v>2075.192343236261</v>
+        <v>2026.226439335637</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G39" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H39" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I39" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J39" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K39" t="n">
         <v>109.688810964315</v>
       </c>
       <c r="L39" t="n">
-        <v>580.2716556992012</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M39" t="n">
-        <v>1181.398861186278</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.14312848023</v>
+        <v>1760.597172667077</v>
       </c>
       <c r="O39" t="n">
-        <v>2326.564838176616</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P39" t="n">
         <v>2667.279412613341</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G40" t="n">
-        <v>255.5068125876523</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H40" t="n">
-        <v>222.9987555068443</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I40" t="n">
-        <v>94.48519273445558</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J40" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K40" t="n">
         <v>153.097154149067</v>
@@ -7359,25 +7359,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S40" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="T40" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="U40" t="n">
-        <v>954.56199835287</v>
+        <v>455.6431675015365</v>
       </c>
       <c r="V40" t="n">
-        <v>954.56199835287</v>
+        <v>455.6431675015365</v>
       </c>
       <c r="W40" t="n">
-        <v>665.1448283159093</v>
+        <v>295.1918474943308</v>
       </c>
       <c r="X40" t="n">
-        <v>437.155277417892</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.155277417892</v>
+        <v>67.2022965963135</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1717.933448267914</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C41" t="n">
-        <v>1348.970931327503</v>
+        <v>1639.626599271515</v>
       </c>
       <c r="D41" t="n">
-        <v>990.7052327207523</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E41" t="n">
-        <v>604.916980122508</v>
+        <v>895.5726480665209</v>
       </c>
       <c r="F41" t="n">
         <v>484.5867432769133</v>
@@ -7411,10 +7411,10 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821401</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726748</v>
+        <v>597.6453821726749</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908085</v>
@@ -7438,25 +7438,25 @@
         <v>3341.479452221463</v>
       </c>
       <c r="S41" t="n">
-        <v>3178.504162921533</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T41" t="n">
-        <v>3178.504162921533</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U41" t="n">
-        <v>3178.504162921533</v>
+        <v>3158.79404651294</v>
       </c>
       <c r="V41" t="n">
-        <v>2847.441275577962</v>
+        <v>3158.79404651294</v>
       </c>
       <c r="W41" t="n">
-        <v>2494.672620307848</v>
+        <v>3158.79404651294</v>
       </c>
       <c r="X41" t="n">
-        <v>2494.672620307848</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y41" t="n">
-        <v>2104.533288332036</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>67.2022965963135</v>
       </c>
       <c r="J42" t="n">
-        <v>171.1635003404554</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K42" t="n">
-        <v>215.2982821430959</v>
+        <v>109.688810964315</v>
       </c>
       <c r="L42" t="n">
-        <v>318.7491850275576</v>
+        <v>580.2716556992012</v>
       </c>
       <c r="M42" t="n">
-        <v>919.8763905146344</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.620657808586</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O42" t="n">
-        <v>2065.042367504972</v>
+        <v>2326.564838176616</v>
       </c>
       <c r="P42" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="C43" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="D43" t="n">
-        <v>67.2022965963135</v>
+        <v>383.8553088520471</v>
       </c>
       <c r="E43" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="F43" t="n">
-        <v>67.2022965963135</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G43" t="n">
         <v>67.2022965963135</v>
@@ -7596,25 +7596,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S43" t="n">
-        <v>900.4633898252298</v>
+        <v>823.1313832504516</v>
       </c>
       <c r="T43" t="n">
-        <v>900.4633898252298</v>
+        <v>823.1313832504516</v>
       </c>
       <c r="U43" t="n">
-        <v>611.303954839161</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="V43" t="n">
-        <v>356.6194666332741</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="W43" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="X43" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2022965963135</v>
+        <v>533.9719482643828</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1833.003580086124</v>
+        <v>2250.35096655269</v>
       </c>
       <c r="C44" t="n">
-        <v>1464.041063145713</v>
+        <v>1881.388449612279</v>
       </c>
       <c r="D44" t="n">
-        <v>1105.775364538962</v>
+        <v>1523.122751005528</v>
       </c>
       <c r="E44" t="n">
-        <v>719.9871119407178</v>
+        <v>1137.334498407284</v>
       </c>
       <c r="F44" t="n">
-        <v>615.7168880904949</v>
+        <v>726.3485936176764</v>
       </c>
       <c r="G44" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H44" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J44" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775582</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S44" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.0163174091</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U44" t="n">
-        <v>2890.300880960889</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="V44" t="n">
-        <v>2559.237993617318</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="W44" t="n">
-        <v>2206.469338347204</v>
+        <v>3010.416564877892</v>
       </c>
       <c r="X44" t="n">
-        <v>1833.003580086124</v>
+        <v>2636.950806616812</v>
       </c>
       <c r="Y44" t="n">
-        <v>1833.003580086124</v>
+        <v>2636.950806616812</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H45" t="n">
-        <v>118.5721901641821</v>
+        <v>118.572190164182</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J45" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K45" t="n">
         <v>371.5093956067677</v>
       </c>
       <c r="L45" t="n">
-        <v>842.092240341654</v>
+        <v>842.0038408395859</v>
       </c>
       <c r="M45" t="n">
-        <v>1443.219445828731</v>
+        <v>1443.131046326663</v>
       </c>
       <c r="N45" t="n">
-        <v>2075.963713122682</v>
+        <v>2075.875313620614</v>
       </c>
       <c r="O45" t="n">
-        <v>2198.461726735106</v>
+        <v>2588.297023317</v>
       </c>
       <c r="P45" t="n">
-        <v>2592.722256984984</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="C46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="D46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="E46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631352</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="K46" t="n">
         <v>153.097154149067</v>
@@ -7839,19 +7839,19 @@
         <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>665.4025633668011</v>
+        <v>839.2935057371783</v>
       </c>
       <c r="V46" t="n">
-        <v>410.7180751609143</v>
+        <v>584.6090175312914</v>
       </c>
       <c r="W46" t="n">
-        <v>121.3009051239537</v>
+        <v>295.1918474943308</v>
       </c>
       <c r="X46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.3009051239537</v>
+        <v>67.2022965963135</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8771,7 +8771,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747218</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497691</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>21.07971842713417</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>106.6762335139202</v>
       </c>
       <c r="L27" t="n">
-        <v>316.7535212497692</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>316.7535212497692</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862468</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>21.07971842713417</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181654</v>
       </c>
       <c r="P33" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>21.07971842713417</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>264.3759445862468</v>
+        <v>183.6957391145492</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497692</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713417</v>
       </c>
       <c r="K42" t="n">
-        <v>1.664916600645462</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>264.3759445862468</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>370.7510528771277</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.31025821046121</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>151.3576608082672</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>43.59049386848568</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642205</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>253.9320052927418</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>213.7769695674595</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>168.153135579926</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>130.8675288472118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>114.8802712749879</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>260.7615551004101</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>226.5096960529869</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>91.30971450146653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112.885830395528</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>189.8047164038327</v>
+        <v>177.1438475350538</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>31.11818237049576</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>85.16958467259974</v>
       </c>
       <c r="G17" t="n">
-        <v>74.744251440114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>146.3129173474138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.50134110941724</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>2.843643048366459</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>211.3140878027735</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>296.861600604827</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>318.0487214609057</v>
@@ -24259,16 +24259,16 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>54.28780737869693</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24417,7 +24417,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9358063394608</v>
+        <v>202.7738652906097</v>
       </c>
       <c r="U25" t="n">
         <v>286.2678406362081</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>39.74200868485818</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.5090408253552</v>
+        <v>16.40214926153644</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>37.15880385809479</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>222.9665409781491</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>212.7429166877631</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>287.1580635955975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>113.4948970442433</v>
       </c>
       <c r="H31" t="n">
         <v>153.8834111013403</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.59904297494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>57.04515302978069</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>146.8937068186979</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>113.4948970442433</v>
       </c>
       <c r="H34" t="n">
-        <v>101.5049628887638</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
         <v>127.2284271446648</v>
@@ -25131,19 +25131,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>200.1385737977373</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>92.49074739102039</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>135.0579528604972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I37" t="n">
         <v>127.2284271446648</v>
@@ -25365,13 +25365,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>206.1625918979115</v>
       </c>
       <c r="U37" t="n">
         <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>5.095431412490711</v>
+        <v>130.8617837651033</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,13 +25566,13 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
-        <v>121.7004345913404</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>127.6761915294574</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>287.7491112645727</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
         <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1782820837292</v>
+        <v>70.31973043229195</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25836,7 +25836,7 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>154.1041794642483</v>
+        <v>77.54549295521781</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>303.6485241299907</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>208.5233329889959</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>91.86342558056751</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0525194866071</v>
@@ -26079,7 +26079,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.1520329466733</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445118</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445115</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812083.4515823104</v>
+        <v>812083.4515823103</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812083.4515823104</v>
+        <v>812083.4515823101</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812083.4515823105</v>
+        <v>812083.4515823101</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812083.4515823104</v>
+        <v>812083.4515823103</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812083.4515823103</v>
+        <v>812083.4515823104</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812083.4515823101</v>
+        <v>812083.4515823104</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812083.4515823103</v>
+        <v>812083.4515823101</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="C2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>303610.2405165454</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303610.2405165452</v>
       </c>
       <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="I2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794858</v>
       </c>
       <c r="J2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="K2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794856</v>
       </c>
       <c r="L2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="M2" t="n">
-        <v>337347.8118794856</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="N2" t="n">
-        <v>337347.8118794856</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="O2" t="n">
         <v>337347.8118794857</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033439</v>
+        <v>151472.5856033438</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.491098746637001e-10</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854674</v>
+        <v>62418.87211854675</v>
       </c>
       <c r="J5" t="n">
         <v>62418.87211854674</v>
@@ -26505,13 +26505,13 @@
         <v>62418.87211854675</v>
       </c>
       <c r="N5" t="n">
-        <v>62418.87211854675</v>
+        <v>62418.87211854674</v>
       </c>
       <c r="O5" t="n">
         <v>62418.87211854674</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854674</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396303.5538663734</v>
+        <v>-402371.9676121926</v>
       </c>
       <c r="C6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023519</v>
       </c>
       <c r="D6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023518</v>
       </c>
       <c r="E6" t="n">
-        <v>227291.925348171</v>
+        <v>221223.5116023517</v>
       </c>
       <c r="F6" t="n">
-        <v>227291.9253481707</v>
+        <v>221223.5116023517</v>
       </c>
       <c r="G6" t="n">
-        <v>227291.9253481709</v>
+        <v>221223.5116023516</v>
       </c>
       <c r="H6" t="n">
-        <v>227291.9253481708</v>
+        <v>221223.5116023518</v>
       </c>
       <c r="I6" t="n">
-        <v>97921.16395162101</v>
+        <v>93459.30122308483</v>
       </c>
       <c r="J6" t="n">
-        <v>72970.530362372</v>
+        <v>68508.66763383566</v>
       </c>
       <c r="K6" t="n">
-        <v>249393.7495549649</v>
+        <v>244931.8868264285</v>
       </c>
       <c r="L6" t="n">
-        <v>249393.7495549649</v>
+        <v>244931.8868264286</v>
       </c>
       <c r="M6" t="n">
-        <v>249393.7495549648</v>
+        <v>244931.8868264284</v>
       </c>
       <c r="N6" t="n">
-        <v>249393.7495549648</v>
+        <v>244931.8868264286</v>
       </c>
       <c r="O6" t="n">
-        <v>249393.7495549649</v>
+        <v>244931.8868264286</v>
       </c>
       <c r="P6" t="n">
-        <v>249393.7495549648</v>
+        <v>244931.8868264285</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,10 +26752,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>520.4186562086461</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545555</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539187</v>
+        <v>840.0287074539189</v>
       </c>
       <c r="J4" t="n">
         <v>840.0287074539187</v>
@@ -26825,13 +26825,13 @@
         <v>840.0287074539189</v>
       </c>
       <c r="N4" t="n">
-        <v>840.0287074539189</v>
+        <v>840.0287074539187</v>
       </c>
       <c r="O4" t="n">
         <v>840.0287074539187</v>
       </c>
       <c r="P4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539187</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.6749919915596</v>
+        <v>142.6749919915595</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993633</v>
+        <v>165.7414346993634</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.996222960454089e-13</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32235,7 +32235,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32247,7 +32247,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119865</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32484,7 +32484,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
         <v>255.8615389119865</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535713</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>42.91567107878936</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492254</v>
       </c>
       <c r="M24" t="n">
         <v>607.1991974616938</v>
@@ -36454,7 +36454,7 @@
         <v>517.5976865620061</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
         <v>2.907514313001485</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.91567107878936</v>
+        <v>149.5919045927095</v>
       </c>
       <c r="L27" t="n">
-        <v>421.2493827492254</v>
+        <v>104.4958614994563</v>
       </c>
       <c r="M27" t="n">
         <v>607.1991974616938</v>
@@ -36694,7 +36694,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>42.91567107878936</v>
       </c>
       <c r="L30" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
         <v>607.1991974616938</v>
@@ -36928,7 +36928,7 @@
         <v>517.5976865620061</v>
       </c>
       <c r="P30" t="n">
-        <v>398.242959848362</v>
+        <v>344.1561357946716</v>
       </c>
       <c r="Q30" t="n">
         <v>2.907514313001485</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>42.91567107878936</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L33" t="n">
         <v>475.3362068029155</v>
@@ -37159,16 +37159,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620061</v>
+        <v>468.310712103442</v>
       </c>
       <c r="P33" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>42.91567107878936</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
@@ -37399,13 +37399,13 @@
         <v>639.135623529244</v>
       </c>
       <c r="O36" t="n">
-        <v>517.5976865620061</v>
+        <v>123.7353672852765</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1561357946716</v>
+        <v>263.475930322974</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>42.91567107878936</v>
       </c>
       <c r="L39" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492254</v>
       </c>
       <c r="M39" t="n">
         <v>607.1991974616938</v>
@@ -37639,7 +37639,7 @@
         <v>517.5976865620061</v>
       </c>
       <c r="P39" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
         <v>2.907514313001485</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>44.58058767943482</v>
+        <v>42.91567107878936</v>
       </c>
       <c r="L42" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
         <v>607.1991974616938</v>
@@ -37876,10 +37876,10 @@
         <v>517.5976865620061</v>
       </c>
       <c r="P42" t="n">
-        <v>398.242959848362</v>
+        <v>344.1561357946716</v>
       </c>
       <c r="Q42" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>307.3809080913679</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3362068029155</v>
+        <v>475.246914376584</v>
       </c>
       <c r="M45" t="n">
         <v>607.1991974616938</v>
@@ -38110,13 +38110,13 @@
         <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
-        <v>123.7353672852765</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P45" t="n">
-        <v>398.242959848362</v>
+        <v>79.78019120842481</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.2177725234627</v>
+        <v>2.907514313001485</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1123769.064312276</v>
+        <v>1165110.123717244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625948.6630396495</v>
+        <v>625948.6630396489</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7817379.804902518</v>
+        <v>7817379.804902517</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8909040.488797836</v>
+        <v>8909040.488797838</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>156.1974274118104</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>172.8578264891721</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>18.33924013548975</v>
       </c>
       <c r="C5" t="n">
-        <v>111.3408864782658</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>267.0500987972739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>273.1951828193246</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1183,16 +1183,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>48.4326051737889</v>
       </c>
       <c r="V11" t="n">
-        <v>101.242562417148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G13" t="n">
-        <v>54.42397186352294</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.88637380904749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.30447282260396</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.1916198885552</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.36452066793949</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>126.9754573707988</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>321.7064610691117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>74.37719913627926</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>248.3805244599228</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>156.1271626621471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826981</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>88.03667822463252</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>294.9531613387161</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I24" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S24" t="n">
         <v>150.8909729053132</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>21.16194104885111</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>270.7687999526505</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826981</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S26" t="n">
-        <v>144.9433871453942</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8281851478184</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I27" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S27" t="n">
         <v>150.8909729053132</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>207.661801906612</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>63.30129965805899</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>41.34686092194387</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>257.3566559678355</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826981</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>62.08290512181554</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I30" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S30" t="n">
         <v>150.8909729053132</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.55762244236376</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>221.1788411038811</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>13.2151483843173</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>266.3168953950959</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S33" t="n">
         <v>150.8909729053132</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25.26867519896051</v>
       </c>
       <c r="G34" t="n">
-        <v>53.55762244236376</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>154.5444678229457</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826981</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>19.51301524450703</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I36" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S36" t="n">
         <v>150.8909729053132</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>17.7732144415493</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>53.55762244236397</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.2106022137938</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>196.8904747050316</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>27.25308065755534</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I39" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S39" t="n">
         <v>150.8909729053132</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>87.48385193639818</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>158.8468068071336</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826981</v>
+        <v>12.01094199733476</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>180.8585516514372</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85619463218986</v>
+        <v>50.85619463218985</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.65739549896769</v>
+        <v>30.65739549896767</v>
       </c>
       <c r="S42" t="n">
         <v>150.8909729053132</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1163089513942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>53.55762244236397</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>204.6872692247978</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>244.7863047406258</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>186.4214708314254</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1158076895348</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.603677789272</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C2" t="n">
-        <v>534.603677789272</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2291.339048722308</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2037.577263360399</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2037.577263360399</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1684.808608090285</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1311.342849829206</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y2" t="n">
-        <v>921.2035178533938</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,40 +4412,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.089911220684</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
         <v>1394.624369323446</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.689751284806</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.640269254486</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.640269254486</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4992,19 +4992,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.888471323017</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>766.9259543826058</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>766.9259543826058</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2648.227267610355</v>
       </c>
       <c r="V11" t="n">
-        <v>2286.093401624031</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.093401624031</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X11" t="n">
-        <v>1912.627643362951</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1522.488311387139</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9166907734179</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9166907734179</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9166907734179</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9166907734179</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9166907734179</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5223,28 +5223,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>290.5651556036576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>290.5651556036576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.5651556036576</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.94664591678</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.680947310029</v>
+        <v>878.792389802288</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117851</v>
+        <v>493.0041372040437</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>493.0041372040437</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>75.0403291022306</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>75.0403291022306</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2657.447603318622</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2403.685817956713</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2403.685817956713</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.685817956713</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.685817956713</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y14" t="n">
-        <v>2013.546485980901</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="15">
@@ -5333,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C16" t="n">
-        <v>338.4002221349972</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D16" t="n">
-        <v>338.4002221349972</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E16" t="n">
-        <v>338.4002221349972</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="F16" t="n">
-        <v>191.5102746370868</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>100.7758309798993</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.915471247702</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.95295430729</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D17" t="n">
-        <v>764.6872557005397</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>378.8990031022955</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548715</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548715</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548715</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287635</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.515311311824</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610018</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1219.679656148628</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C20" t="n">
-        <v>850.7171392082162</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>1996.418828188561</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>1996.418828188561</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.418828188561</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.418828188561</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y20" t="n">
-        <v>1606.27949621275</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1639.626599271516</v>
+        <v>2139.719261025509</v>
       </c>
       <c r="C23" t="n">
-        <v>1639.626599271516</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="D23" t="n">
-        <v>1281.360900664765</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E23" t="n">
-        <v>895.572648066521</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F23" t="n">
-        <v>484.5867432769134</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G23" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H23" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L23" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M23" t="n">
         <v>1685.237002375317</v>
@@ -6010,31 +6010,31 @@
         <v>3146.337816775583</v>
       </c>
       <c r="Q23" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T23" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U23" t="n">
-        <v>3087.764015773252</v>
+        <v>3252.553514620825</v>
       </c>
       <c r="V23" t="n">
-        <v>3087.764015773252</v>
+        <v>3252.553514620825</v>
       </c>
       <c r="W23" t="n">
-        <v>2789.831529572529</v>
+        <v>2899.784859350711</v>
       </c>
       <c r="X23" t="n">
-        <v>2416.365771311449</v>
+        <v>2526.319101089631</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.226439335637</v>
+        <v>2526.319101089631</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H24" t="n">
         <v>118.5721901641821</v>
@@ -6068,25 +6068,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K24" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L24" t="n">
-        <v>526.7256998860481</v>
+        <v>793.2981356276754</v>
       </c>
       <c r="M24" t="n">
-        <v>1127.852905373125</v>
+        <v>1394.425341114752</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O24" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>530.7452563499576</v>
+        <v>681.0581600168596</v>
       </c>
       <c r="C25" t="n">
-        <v>530.7452563499576</v>
+        <v>512.1219770889527</v>
       </c>
       <c r="D25" t="n">
-        <v>530.7452563499576</v>
+        <v>362.005337676617</v>
       </c>
       <c r="E25" t="n">
-        <v>382.8321627675644</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F25" t="n">
-        <v>235.942215269654</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G25" t="n">
         <v>67.20229659631352</v>
@@ -6150,49 +6150,49 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K25" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L25" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M25" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N25" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O25" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P25" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q25" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R25" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S25" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T25" t="n">
-        <v>933.1863003237274</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U25" t="n">
-        <v>933.1863003237274</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="V25" t="n">
-        <v>933.1863003237274</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="W25" t="n">
-        <v>933.1863003237274</v>
+        <v>681.0581600168596</v>
       </c>
       <c r="X25" t="n">
-        <v>933.1863003237274</v>
+        <v>681.0581600168596</v>
       </c>
       <c r="Y25" t="n">
-        <v>712.3937211801973</v>
+        <v>681.0581600168596</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1281.360900664765</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C26" t="n">
-        <v>1281.360900664765</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D26" t="n">
-        <v>1281.360900664765</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E26" t="n">
-        <v>895.5726480665209</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F26" t="n">
-        <v>484.5867432769133</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I26" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K26" t="n">
-        <v>597.645382172675</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
         <v>1685.237002375317</v>
@@ -6244,34 +6244,34 @@
         <v>2758.834606696547</v>
       </c>
       <c r="P26" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q26" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S26" t="n">
-        <v>3195.071990458438</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>2978.973478051863</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U26" t="n">
-        <v>2725.258041603652</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V26" t="n">
-        <v>2394.195154260081</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="W26" t="n">
-        <v>2041.426498989967</v>
+        <v>2741.409599832341</v>
       </c>
       <c r="X26" t="n">
-        <v>1667.960740728887</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y26" t="n">
-        <v>1667.960740728887</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H27" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I27" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>215.2982821430959</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L27" t="n">
-        <v>318.7491850275576</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M27" t="n">
-        <v>919.8763905146344</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O27" t="n">
-        <v>2065.042367504972</v>
+        <v>2588.297023317</v>
       </c>
       <c r="P27" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.8618957622932</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C28" t="n">
-        <v>680.8618957622932</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D28" t="n">
-        <v>530.7452563499575</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E28" t="n">
-        <v>382.8321627675643</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F28" t="n">
-        <v>235.942215269654</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J28" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K28" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L28" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M28" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N28" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O28" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P28" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q28" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R28" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S28" t="n">
-        <v>744.8026024876053</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T28" t="n">
-        <v>744.8026024876053</v>
+        <v>518.604818306332</v>
       </c>
       <c r="U28" t="n">
-        <v>680.8618957622932</v>
+        <v>518.604818306332</v>
       </c>
       <c r="V28" t="n">
-        <v>680.8618957622932</v>
+        <v>518.604818306332</v>
       </c>
       <c r="W28" t="n">
-        <v>680.8618957622932</v>
+        <v>476.8403123245706</v>
       </c>
       <c r="X28" t="n">
-        <v>680.8618957622932</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.8618957622932</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1912.466004340323</v>
+        <v>2030.712962234426</v>
       </c>
       <c r="C29" t="n">
-        <v>1543.503487399911</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="D29" t="n">
-        <v>1185.237788793161</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E29" t="n">
-        <v>799.4495361949166</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F29" t="n">
-        <v>388.4636314053091</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G29" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H29" t="n">
-        <v>67.2022965963135</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I29" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821401</v>
       </c>
       <c r="K29" t="n">
         <v>597.6453821726749</v>
@@ -6475,40 +6475,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O29" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P29" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q29" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T29" t="n">
-        <v>3125.380939814887</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="U29" t="n">
-        <v>3125.380939814887</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="V29" t="n">
-        <v>3125.380939814887</v>
+        <v>2794.318052471318</v>
       </c>
       <c r="W29" t="n">
-        <v>3062.670934641336</v>
+        <v>2794.318052471318</v>
       </c>
       <c r="X29" t="n">
-        <v>2689.205176380256</v>
+        <v>2420.852294210238</v>
       </c>
       <c r="Y29" t="n">
-        <v>2299.065844404445</v>
+        <v>2030.712962234426</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H30" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I30" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2022965963135</v>
+        <v>120.9579668782074</v>
       </c>
       <c r="K30" t="n">
-        <v>109.688810964315</v>
+        <v>163.4444812462089</v>
       </c>
       <c r="L30" t="n">
-        <v>580.2716556992012</v>
+        <v>634.0273259810953</v>
       </c>
       <c r="M30" t="n">
-        <v>1181.398861186278</v>
+        <v>1235.154531468172</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.14312848023</v>
+        <v>1867.898798762124</v>
       </c>
       <c r="O30" t="n">
-        <v>2326.564838176616</v>
+        <v>2380.32050845851</v>
       </c>
       <c r="P30" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G31" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H31" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I31" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J31" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M31" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N31" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O31" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P31" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q31" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R31" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S31" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T31" t="n">
-        <v>954.56199835287</v>
+        <v>518.604818306332</v>
       </c>
       <c r="U31" t="n">
-        <v>665.4025633668011</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="V31" t="n">
-        <v>410.7180751609143</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="W31" t="n">
-        <v>121.3009051239537</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1860.211634576879</v>
+        <v>1597.60321142232</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.249117636467</v>
+        <v>1228.640694481908</v>
       </c>
       <c r="D32" t="n">
-        <v>1132.983419029717</v>
+        <v>870.3749958751575</v>
       </c>
       <c r="E32" t="n">
-        <v>747.1951664314724</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="F32" t="n">
-        <v>336.2092616418649</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G32" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H32" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
         <v>231.1641949821403</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726749</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908085</v>
@@ -6712,40 +6712,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P32" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q32" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R32" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S32" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515746</v>
       </c>
       <c r="T32" t="n">
-        <v>3341.479452221463</v>
+        <v>2981.04102810917</v>
       </c>
       <c r="U32" t="n">
-        <v>3341.479452221463</v>
+        <v>2727.325591660959</v>
       </c>
       <c r="V32" t="n">
-        <v>3010.416564877892</v>
+        <v>2727.325591660959</v>
       </c>
       <c r="W32" t="n">
-        <v>3010.416564877892</v>
+        <v>2374.556936390845</v>
       </c>
       <c r="X32" t="n">
-        <v>2636.950806616812</v>
+        <v>2001.091178129765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2246.811474641001</v>
+        <v>1610.951846153953</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H33" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I33" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K33" t="n">
-        <v>371.5093956067677</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L33" t="n">
-        <v>842.092240341654</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M33" t="n">
-        <v>1443.219445828731</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N33" t="n">
-        <v>1601.414762522564</v>
+        <v>1705.375966266706</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504972</v>
+        <v>2217.797675963092</v>
       </c>
       <c r="P33" t="n">
-        <v>2459.30289775485</v>
+        <v>2612.058206212971</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="C34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="D34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="E34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="F34" t="n">
-        <v>121.3009051239537</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G34" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H34" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I34" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J34" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K34" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L34" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M34" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N34" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O34" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P34" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q34" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>954.56199835287</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S34" t="n">
-        <v>954.56199835287</v>
+        <v>608.341165156932</v>
       </c>
       <c r="T34" t="n">
-        <v>954.56199835287</v>
+        <v>382.1433809756585</v>
       </c>
       <c r="U34" t="n">
-        <v>665.4025633668011</v>
+        <v>382.1433809756585</v>
       </c>
       <c r="V34" t="n">
-        <v>410.7180751609143</v>
+        <v>382.1433809756585</v>
       </c>
       <c r="W34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="X34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.3009051239537</v>
+        <v>92.72621093869788</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1937.559085472239</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.596568531827</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D35" t="n">
-        <v>1412.491045478347</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E35" t="n">
-        <v>1026.702792880102</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F35" t="n">
-        <v>615.7168880904949</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I35" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J35" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726755</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908086</v>
+        <v>1104.574328908085</v>
       </c>
       <c r="M35" t="n">
         <v>1685.237002375317</v>
@@ -6958,31 +6958,31 @@
         <v>3146.337816775583</v>
       </c>
       <c r="Q35" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R35" t="n">
-        <v>3341.479452221463</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S35" t="n">
-        <v>3341.479452221463</v>
+        <v>3178.504162921534</v>
       </c>
       <c r="T35" t="n">
-        <v>3341.479452221463</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="U35" t="n">
-        <v>3087.764015773252</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="V35" t="n">
-        <v>3087.764015773252</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="W35" t="n">
-        <v>3087.764015773252</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.298257512172</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y35" t="n">
-        <v>2324.158925536361</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H36" t="n">
         <v>118.5721901641821</v>
@@ -7016,22 +7016,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J36" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>371.5093956067677</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L36" t="n">
-        <v>842.092240341654</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.219445828731</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N36" t="n">
-        <v>2075.963713122682</v>
+        <v>1867.898798762124</v>
       </c>
       <c r="O36" t="n">
-        <v>2198.461726735106</v>
+        <v>2380.32050845851</v>
       </c>
       <c r="P36" t="n">
         <v>2459.30289775485</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>534.1682125189493</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C37" t="n">
-        <v>365.2320295910424</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D37" t="n">
-        <v>215.1153901787066</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E37" t="n">
         <v>67.20229659631352</v>
@@ -7098,49 +7098,49 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K37" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L37" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M37" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N37" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O37" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P37" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q37" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R37" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S37" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T37" t="n">
-        <v>936.6092564927192</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U37" t="n">
-        <v>936.6092564927192</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V37" t="n">
-        <v>936.6092564927192</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W37" t="n">
-        <v>936.6092564927192</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="X37" t="n">
-        <v>936.6092564927192</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.816677349189</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1639.626599271515</v>
+        <v>1597.60321142232</v>
       </c>
       <c r="C38" t="n">
-        <v>1639.626599271515</v>
+        <v>1228.640694481908</v>
       </c>
       <c r="D38" t="n">
-        <v>1281.360900664765</v>
+        <v>870.3749958751575</v>
       </c>
       <c r="E38" t="n">
-        <v>895.5726480665209</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="F38" t="n">
-        <v>484.5867432769133</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G38" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H38" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I38" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K38" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L38" t="n">
         <v>1104.574328908085</v>
@@ -7186,40 +7186,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N38" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O38" t="n">
         <v>2758.834606696547</v>
       </c>
       <c r="P38" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q38" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R38" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S38" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T38" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U38" t="n">
-        <v>3341.479452221463</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="V38" t="n">
-        <v>3142.600184842643</v>
+        <v>2775.336506023894</v>
       </c>
       <c r="W38" t="n">
-        <v>2789.831529572529</v>
+        <v>2747.808141723333</v>
       </c>
       <c r="X38" t="n">
-        <v>2416.365771311449</v>
+        <v>2374.342383462253</v>
       </c>
       <c r="Y38" t="n">
-        <v>2026.226439335637</v>
+        <v>1984.203051486441</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H39" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I39" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K39" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L39" t="n">
-        <v>526.7256998860481</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M39" t="n">
-        <v>1127.852905373125</v>
+        <v>1086.132636460373</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.597172667077</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O39" t="n">
-        <v>2273.018882363463</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P39" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J40" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K40" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L40" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M40" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N40" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O40" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P40" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q40" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R40" t="n">
-        <v>954.56199835287</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S40" t="n">
-        <v>744.8026024876053</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T40" t="n">
-        <v>744.8026024876053</v>
+        <v>591.9027768409231</v>
       </c>
       <c r="U40" t="n">
-        <v>455.6431675015365</v>
+        <v>503.5352496324401</v>
       </c>
       <c r="V40" t="n">
-        <v>455.6431675015365</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="W40" t="n">
-        <v>295.1918474943308</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="X40" t="n">
-        <v>67.2022965963135</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.2022965963135</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2008.589116211927</v>
+        <v>1944.062198422679</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.626599271515</v>
+        <v>1575.099681482267</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.360900664765</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="E41" t="n">
-        <v>895.5726480665209</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F41" t="n">
-        <v>484.5867432769133</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G41" t="n">
-        <v>67.2022965963135</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H41" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I41" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J41" t="n">
         <v>231.1641949821403</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726749</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908085</v>
@@ -7423,40 +7423,40 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N41" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O41" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q41" t="n">
-        <v>3360.114829815675</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="R41" t="n">
-        <v>3341.479452221463</v>
+        <v>3347.982565171903</v>
       </c>
       <c r="S41" t="n">
-        <v>3341.479452221463</v>
+        <v>3347.982565171903</v>
       </c>
       <c r="T41" t="n">
-        <v>3341.479452221463</v>
+        <v>3347.982565171903</v>
       </c>
       <c r="U41" t="n">
-        <v>3158.79404651294</v>
+        <v>3094.267128723692</v>
       </c>
       <c r="V41" t="n">
-        <v>3158.79404651294</v>
+        <v>3094.267128723692</v>
       </c>
       <c r="W41" t="n">
-        <v>3158.79404651294</v>
+        <v>3094.267128723692</v>
       </c>
       <c r="X41" t="n">
-        <v>2785.328288251861</v>
+        <v>2720.801370462612</v>
       </c>
       <c r="Y41" t="n">
-        <v>2395.188956276049</v>
+        <v>2330.662038486801</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J42" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K42" t="n">
-        <v>109.688810964315</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L42" t="n">
-        <v>580.2716556992012</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.398861186278</v>
+        <v>1309.800086598596</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.14312848023</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P42" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q42" t="n">
         <v>2670.157851783212</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.9719482643828</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C43" t="n">
-        <v>533.9719482643828</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D43" t="n">
-        <v>383.8553088520471</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E43" t="n">
-        <v>235.942215269654</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F43" t="n">
-        <v>235.942215269654</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J43" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K43" t="n">
-        <v>153.097154149067</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
-        <v>318.539433855138</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M43" t="n">
-        <v>503.3642441804033</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N43" t="n">
-        <v>689.2289500417501</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O43" t="n">
-        <v>844.8887934645954</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P43" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q43" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R43" t="n">
-        <v>954.56199835287</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S43" t="n">
-        <v>823.1313832504516</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T43" t="n">
-        <v>823.1313832504516</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U43" t="n">
-        <v>533.9719482643828</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V43" t="n">
-        <v>533.9719482643828</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W43" t="n">
-        <v>533.9719482643828</v>
+        <v>121.3009051239539</v>
       </c>
       <c r="X43" t="n">
-        <v>533.9719482643828</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.9719482643828</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2250.35096655269</v>
+        <v>1650.323417605177</v>
       </c>
       <c r="C44" t="n">
-        <v>1881.388449612279</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D44" t="n">
-        <v>1523.122751005528</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E44" t="n">
-        <v>1137.334498407284</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F44" t="n">
-        <v>726.3485936176764</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G44" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I44" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J44" t="n">
         <v>231.1641949821405</v>
@@ -7660,13 +7660,13 @@
         <v>1685.237002375317</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.66340741757</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O44" t="n">
         <v>2758.834606696547</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775582</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q44" t="n">
         <v>3360.114829815675</v>
@@ -7684,16 +7684,16 @@
         <v>3341.479452221463</v>
       </c>
       <c r="V44" t="n">
-        <v>3010.416564877892</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="W44" t="n">
-        <v>3010.416564877892</v>
+        <v>2657.647909607778</v>
       </c>
       <c r="X44" t="n">
-        <v>2636.950806616812</v>
+        <v>2284.182151346698</v>
       </c>
       <c r="Y44" t="n">
-        <v>2636.950806616812</v>
+        <v>2036.923257669299</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H45" t="n">
-        <v>118.572190164182</v>
+        <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2022965963135</v>
+        <v>171.1635003404554</v>
       </c>
       <c r="K45" t="n">
-        <v>371.5093956067677</v>
+        <v>475.4705993509097</v>
       </c>
       <c r="L45" t="n">
-        <v>842.0038408395859</v>
+        <v>946.0534440857959</v>
       </c>
       <c r="M45" t="n">
-        <v>1443.131046326663</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N45" t="n">
-        <v>2075.875313620614</v>
+        <v>1705.375966266706</v>
       </c>
       <c r="O45" t="n">
-        <v>2588.297023317</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P45" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J46" t="n">
-        <v>67.2022965963135</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K46" t="n">
         <v>153.097154149067</v>
@@ -7833,25 +7833,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>954.56199835287</v>
+        <v>766.2574823615312</v>
       </c>
       <c r="T46" t="n">
-        <v>954.56199835287</v>
+        <v>766.2574823615312</v>
       </c>
       <c r="U46" t="n">
-        <v>839.2935057371783</v>
+        <v>766.2574823615312</v>
       </c>
       <c r="V46" t="n">
-        <v>584.6090175312914</v>
+        <v>766.2574823615312</v>
       </c>
       <c r="W46" t="n">
-        <v>295.1918474943308</v>
+        <v>476.8403123245706</v>
       </c>
       <c r="X46" t="n">
-        <v>67.2022965963135</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.2022965963135</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719075</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>316.7535212497691</v>
+        <v>216.5420539316201</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>21.07971842713417</v>
+        <v>21.07971842713414</v>
       </c>
       <c r="K27" t="n">
-        <v>106.6762335139202</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>393.7730268503983</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>21.07971842713417</v>
+        <v>75.37837527753202</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>264.3759445862468</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>344.5753448181654</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>55.7789963640102</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>164.1644772680981</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>183.6957391145492</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>316.7535212497692</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>311.4067723781608</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>225.9267173113367</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>21.07971842713417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.7510528771277</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>239.5640279048906</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>209.0754643591972</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>43.59049386848568</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22761,10 +22761,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684542</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>364.3946015279909</v>
       </c>
       <c r="C5" t="n">
-        <v>253.9320052927418</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.153135579926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>85.38225033739943</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>114.8802712749879</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23232,13 +23232,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>62.69861478456102</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,10 +23314,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>202.7915623345004</v>
       </c>
       <c r="V11" t="n">
-        <v>226.5096960529869</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G13" t="n">
-        <v>112.885830395528</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>131.0449424358138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>177.1438475350538</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>31.11818237049576</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>109.8063681738556</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>238.2974344002088</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,16 +23788,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.498373540188</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.3566425272013</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>2.843643048366459</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293305</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>163.1416038590967</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>54.28780737869693</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24387,7 +24387,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R25" t="n">
         <v>135.0968229573668</v>
@@ -24417,7 +24417,7 @@
         <v>207.661801906612</v>
       </c>
       <c r="T25" t="n">
-        <v>202.7738652906097</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
         <v>286.2678406362081</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>15.75419838394049</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
         <v>318.0487214609057</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>16.40214926153644</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>82.92407332231647</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
@@ -24624,7 +24624,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R28" t="n">
         <v>135.0968229573668</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>222.9665409781491</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>245.1761374146471</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>107.916235803172</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>287.1580635955975</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4948970442433</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
         <v>153.8834111013403</v>
@@ -24861,7 +24861,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R31" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S31" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.08899953232694</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>369.5186932791633</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>146.8937068186979</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1523728239707</v>
       </c>
       <c r="G34" t="n">
-        <v>113.4948970442433</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
         <v>153.8834111013403</v>
@@ -25098,7 +25098,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>200.1385737977373</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>194.4245120380028</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25335,7 +25335,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R37" t="n">
         <v>135.0968229573668</v>
@@ -25365,22 +25365,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>206.1625918979115</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1520329466732</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S38" t="n">
         <v>161.3455364069306</v>
@@ -25447,13 +25447,13 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>130.8617837651033</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>321.9878880598577</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25572,7 +25572,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R40" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>198.7839886998099</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>127.6761915294574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654458</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.438081820935018</v>
       </c>
       <c r="S41" t="n">
         <v>161.3455364069306</v>
@@ -25684,7 +25684,7 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>70.31973043229195</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25809,7 +25809,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01006717676064</v>
+        <v>27.01006717676063</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.578826164188825</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R43" t="n">
         <v>135.0968229573668</v>
       </c>
       <c r="S43" t="n">
-        <v>77.54549295521781</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
         <v>223.9358063394608</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1520329466732</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>208.5233329889959</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>141.4516339154278</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>21.24033107518662</v>
       </c>
       <c r="T46" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>172.1520329466733</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445118</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734997.6231445115</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812083.4515823103</v>
+        <v>812083.4515823104</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812083.4515823104</v>
+        <v>812083.4515823103</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812083.4515823101</v>
+        <v>812083.4515823104</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812083.4515823101</v>
+        <v>812083.4515823105</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812083.4515823104</v>
+        <v>812083.4515823103</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812083.4515823101</v>
+        <v>812083.4515823103</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
@@ -26328,10 +26328,10 @@
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="I2" t="n">
         <v>337347.8118794858</v>
@@ -26340,22 +26340,22 @@
         <v>337347.8118794857</v>
       </c>
       <c r="K2" t="n">
-        <v>337347.8118794856</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="L2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794858</v>
       </c>
       <c r="M2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="N2" t="n">
-        <v>337347.8118794857</v>
+        <v>337347.8118794859</v>
       </c>
       <c r="O2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="P2" t="n">
-        <v>337347.8118794856</v>
+        <v>337347.8118794857</v>
       </c>
     </row>
     <row r="3">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.04677826079569e-10</v>
       </c>
       <c r="I3" t="n">
         <v>151472.5856033438</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.491098746637001e-10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496505</v>
       </c>
       <c r="H4" t="n">
         <v>27086.83710496504</v>
@@ -26490,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="M5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="N5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="O5" t="n">
+        <v>62418.87211854676</v>
+      </c>
+      <c r="P5" t="n">
         <v>62418.87211854675</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62418.87211854674</v>
-      </c>
-      <c r="K5" t="n">
-        <v>62418.87211854674</v>
-      </c>
-      <c r="L5" t="n">
-        <v>62418.87211854674</v>
-      </c>
-      <c r="M5" t="n">
-        <v>62418.87211854675</v>
-      </c>
-      <c r="N5" t="n">
-        <v>62418.87211854674</v>
-      </c>
-      <c r="O5" t="n">
-        <v>62418.87211854674</v>
-      </c>
-      <c r="P5" t="n">
-        <v>62418.87211854674</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402371.9676121926</v>
+        <v>-396910.3952409555</v>
       </c>
       <c r="C6" t="n">
-        <v>187595.9116023519</v>
+        <v>193057.4839735889</v>
       </c>
       <c r="D6" t="n">
-        <v>187595.9116023518</v>
+        <v>193057.4839735889</v>
       </c>
       <c r="E6" t="n">
-        <v>221223.5116023517</v>
+        <v>226685.0839735889</v>
       </c>
       <c r="F6" t="n">
-        <v>221223.5116023517</v>
+        <v>226685.083973589</v>
       </c>
       <c r="G6" t="n">
-        <v>221223.5116023516</v>
+        <v>226685.0839735891</v>
       </c>
       <c r="H6" t="n">
-        <v>221223.5116023518</v>
+        <v>226685.0839735889</v>
       </c>
       <c r="I6" t="n">
-        <v>93459.30122308483</v>
+        <v>97474.97767876757</v>
       </c>
       <c r="J6" t="n">
-        <v>68508.66763383566</v>
+        <v>72524.34408951829</v>
       </c>
       <c r="K6" t="n">
-        <v>244931.8868264285</v>
+        <v>248947.5632821113</v>
       </c>
       <c r="L6" t="n">
-        <v>244931.8868264286</v>
+        <v>248947.5632821114</v>
       </c>
       <c r="M6" t="n">
-        <v>244931.8868264284</v>
+        <v>248947.5632821113</v>
       </c>
       <c r="N6" t="n">
-        <v>244931.8868264286</v>
+        <v>248947.5632821115</v>
       </c>
       <c r="O6" t="n">
-        <v>244931.8868264286</v>
+        <v>248947.5632821113</v>
       </c>
       <c r="P6" t="n">
-        <v>244931.8868264285</v>
+        <v>248947.5632821113</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,34 +26749,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="J3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="L3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="M3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="N3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4186562086461</v>
+        <v>520.4186562086462</v>
       </c>
       <c r="P3" t="n">
         <v>520.4186562086461</v>
@@ -26798,40 +26798,40 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="J4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="K4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="L4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="M4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="N4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="O4" t="n">
+        <v>840.028707453919</v>
+      </c>
+      <c r="P4" t="n">
         <v>840.0287074539189</v>
-      </c>
-      <c r="J4" t="n">
-        <v>840.0287074539187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>840.0287074539187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>840.0287074539187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>840.0287074539189</v>
-      </c>
-      <c r="N4" t="n">
-        <v>840.0287074539187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>840.0287074539187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>840.0287074539187</v>
       </c>
     </row>
   </sheetData>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.787323302424566e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I3" t="n">
         <v>142.6749919915595</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.996222960454089e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H23" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I23" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J23" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K23" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L23" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M23" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N23" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O23" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q23" t="n">
         <v>225.9270760227193</v>
@@ -32736,10 +32736,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S23" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T23" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U23" t="n">
         <v>0.1673708241073031</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H24" t="n">
         <v>10.81096114123999</v>
@@ -32788,7 +32788,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J24" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K24" t="n">
         <v>180.7571100531484</v>
@@ -32797,7 +32797,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N24" t="n">
         <v>291.1349612690237</v>
@@ -32812,16 +32812,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R24" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S24" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T24" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H25" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I25" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J25" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K25" t="n">
         <v>109.0319742024016</v>
@@ -32876,7 +32876,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M25" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N25" t="n">
         <v>143.609954753445</v>
@@ -32888,7 +32888,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R25" t="n">
         <v>42.19656841980267</v>
@@ -32897,10 +32897,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T25" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H26" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I26" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J26" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K26" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L26" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M26" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N26" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O26" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q26" t="n">
         <v>225.9270760227193</v>
@@ -32973,10 +32973,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S26" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T26" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U26" t="n">
         <v>0.1673708241073031</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H27" t="n">
         <v>10.81096114123999</v>
@@ -33025,7 +33025,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J27" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K27" t="n">
         <v>180.7571100531484</v>
@@ -33034,7 +33034,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M27" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N27" t="n">
         <v>291.1349612690237</v>
@@ -33049,16 +33049,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R27" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S27" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T27" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H28" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I28" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J28" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K28" t="n">
         <v>109.0319742024016</v>
@@ -33113,7 +33113,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M28" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N28" t="n">
         <v>143.609954753445</v>
@@ -33125,7 +33125,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R28" t="n">
         <v>42.19656841980267</v>
@@ -33134,10 +33134,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T28" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H29" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I29" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J29" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K29" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L29" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M29" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N29" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O29" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q29" t="n">
         <v>225.9270760227193</v>
@@ -33210,10 +33210,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S29" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T29" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U29" t="n">
         <v>0.1673708241073031</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H30" t="n">
         <v>10.81096114123999</v>
@@ -33262,7 +33262,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J30" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K30" t="n">
         <v>180.7571100531484</v>
@@ -33271,7 +33271,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M30" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N30" t="n">
         <v>291.1349612690237</v>
@@ -33286,16 +33286,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R30" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S30" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T30" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H31" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I31" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J31" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K31" t="n">
         <v>109.0319742024016</v>
@@ -33350,7 +33350,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M31" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N31" t="n">
         <v>143.609954753445</v>
@@ -33362,7 +33362,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R31" t="n">
         <v>42.19656841980267</v>
@@ -33371,10 +33371,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T31" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H32" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I32" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J32" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K32" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L32" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M32" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N32" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O32" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q32" t="n">
         <v>225.9270760227193</v>
@@ -33447,10 +33447,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S32" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T32" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U32" t="n">
         <v>0.1673708241073031</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H33" t="n">
         <v>10.81096114123999</v>
@@ -33499,7 +33499,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J33" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K33" t="n">
         <v>180.7571100531484</v>
@@ -33508,7 +33508,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M33" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N33" t="n">
         <v>291.1349612690237</v>
@@ -33523,16 +33523,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R33" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S33" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T33" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H34" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I34" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J34" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K34" t="n">
         <v>109.0319742024016</v>
@@ -33587,7 +33587,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M34" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N34" t="n">
         <v>143.609954753445</v>
@@ -33599,7 +33599,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R34" t="n">
         <v>42.19656841980267</v>
@@ -33608,10 +33608,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T34" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H35" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I35" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J35" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K35" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L35" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M35" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N35" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O35" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q35" t="n">
         <v>225.9270760227193</v>
@@ -33684,10 +33684,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S35" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T35" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U35" t="n">
         <v>0.1673708241073031</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H36" t="n">
         <v>10.81096114123999</v>
@@ -33736,7 +33736,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J36" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K36" t="n">
         <v>180.7571100531484</v>
@@ -33745,7 +33745,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M36" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N36" t="n">
         <v>291.1349612690237</v>
@@ -33760,16 +33760,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R36" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S36" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T36" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H37" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I37" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J37" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K37" t="n">
         <v>109.0319742024016</v>
@@ -33824,7 +33824,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M37" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N37" t="n">
         <v>143.609954753445</v>
@@ -33836,7 +33836,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R37" t="n">
         <v>42.19656841980267</v>
@@ -33845,10 +33845,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T37" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H38" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I38" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J38" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K38" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L38" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M38" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N38" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O38" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q38" t="n">
         <v>225.9270760227193</v>
@@ -33921,10 +33921,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S38" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T38" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U38" t="n">
         <v>0.1673708241073031</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H39" t="n">
         <v>10.81096114123999</v>
@@ -33973,7 +33973,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J39" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K39" t="n">
         <v>180.7571100531484</v>
@@ -33982,7 +33982,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M39" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N39" t="n">
         <v>291.1349612690237</v>
@@ -33997,16 +33997,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R39" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S39" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T39" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H40" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I40" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J40" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K40" t="n">
         <v>109.0319742024016</v>
@@ -34061,7 +34061,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M40" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N40" t="n">
         <v>143.609954753445</v>
@@ -34073,7 +34073,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R40" t="n">
         <v>42.19656841980267</v>
@@ -34082,10 +34082,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T40" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.092135301341289</v>
+        <v>2.09213530134129</v>
       </c>
       <c r="H41" t="n">
-        <v>21.42608065486148</v>
+        <v>21.42608065486149</v>
       </c>
       <c r="I41" t="n">
-        <v>80.65704620496014</v>
+        <v>80.65704620496015</v>
       </c>
       <c r="J41" t="n">
-        <v>177.5673685322154</v>
+        <v>177.5673685322155</v>
       </c>
       <c r="K41" t="n">
-        <v>266.1274558379922</v>
+        <v>266.1274558379923</v>
       </c>
       <c r="L41" t="n">
-        <v>330.1546415664158</v>
+        <v>330.1546415664159</v>
       </c>
       <c r="M41" t="n">
-        <v>367.3606527316439</v>
+        <v>367.360652731644</v>
       </c>
       <c r="N41" t="n">
-        <v>373.3049321565799</v>
+        <v>373.30493215658</v>
       </c>
       <c r="O41" t="n">
-        <v>352.5012617538674</v>
+        <v>352.5012617538675</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8516715020043</v>
+        <v>300.8516715020044</v>
       </c>
       <c r="Q41" t="n">
         <v>225.9270760227193</v>
@@ -34158,10 +34158,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S41" t="n">
-        <v>47.67453317931468</v>
+        <v>47.67453317931469</v>
       </c>
       <c r="T41" t="n">
-        <v>9.158322281621498</v>
+        <v>9.158322281621501</v>
       </c>
       <c r="U41" t="n">
         <v>0.1673708241073031</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.119391071845012</v>
+        <v>1.119391071845013</v>
       </c>
       <c r="H42" t="n">
         <v>10.81096114123999</v>
@@ -34210,7 +34210,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J42" t="n">
-        <v>105.7579082395325</v>
+        <v>105.7579082395326</v>
       </c>
       <c r="K42" t="n">
         <v>180.7571100531484</v>
@@ -34219,7 +34219,7 @@
         <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
-        <v>283.6281676337121</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N42" t="n">
         <v>291.1349612690237</v>
@@ -34234,16 +34234,16 @@
         <v>142.889288399023</v>
       </c>
       <c r="R42" t="n">
-        <v>69.50043865367545</v>
+        <v>69.50043865367546</v>
       </c>
       <c r="S42" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T42" t="n">
-        <v>4.511931557129675</v>
+        <v>4.511931557129676</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07364414946348768</v>
+        <v>0.0736441494634877</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9384598718516568</v>
+        <v>0.938459871851657</v>
       </c>
       <c r="H43" t="n">
-        <v>8.343761406099281</v>
+        <v>8.343761406099285</v>
       </c>
       <c r="I43" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J43" t="n">
-        <v>66.34911293991213</v>
+        <v>66.34911293991215</v>
       </c>
       <c r="K43" t="n">
         <v>109.0319742024016</v>
@@ -34298,7 +34298,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M43" t="n">
-        <v>147.1078506394374</v>
+        <v>147.1078506394375</v>
       </c>
       <c r="N43" t="n">
         <v>143.609954753445</v>
@@ -34310,7 +34310,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.58321708750556</v>
+        <v>78.58321708750557</v>
       </c>
       <c r="R43" t="n">
         <v>42.19656841980267</v>
@@ -34319,10 +34319,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T43" t="n">
-        <v>4.009783088820714</v>
+        <v>4.009783088820715</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0511887202828177</v>
+        <v>0.05118872028281771</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K23" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L23" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M23" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N23" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O23" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P23" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q23" t="n">
         <v>215.9363768081745</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
-        <v>42.91567107878936</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L24" t="n">
-        <v>421.2493827492254</v>
+        <v>321.0379154310764</v>
       </c>
       <c r="M24" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N24" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O24" t="n">
-        <v>517.5976865620061</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L25" t="n">
         <v>167.1134138445161</v>
@@ -36597,22 +36597,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K26" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L26" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M26" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N26" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O26" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P26" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q26" t="n">
         <v>215.9363768081745</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>149.5919045927095</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>104.4958614994563</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
         <v>607.1991974616938</v>
@@ -36688,13 +36688,13 @@
         <v>639.135623529244</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620061</v>
+        <v>517.5083941356748</v>
       </c>
       <c r="P27" t="n">
-        <v>398.242959848362</v>
+        <v>79.78019120842487</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001514</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L28" t="n">
         <v>167.1134138445161</v>
@@ -36834,22 +36834,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K29" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L29" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M29" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N29" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O29" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q29" t="n">
         <v>215.9363768081745</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>54.29865685039788</v>
       </c>
       <c r="K30" t="n">
-        <v>42.91567107878936</v>
+        <v>42.91567107878939</v>
       </c>
       <c r="L30" t="n">
         <v>475.3362068029155</v>
@@ -36925,13 +36925,13 @@
         <v>639.135623529244</v>
       </c>
       <c r="O30" t="n">
-        <v>517.5976865620061</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P30" t="n">
-        <v>344.1561357946716</v>
+        <v>79.78019120842487</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L31" t="n">
         <v>167.1134138445161</v>
@@ -37071,22 +37071,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K32" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L32" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M32" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N32" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O32" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q32" t="n">
         <v>215.9363768081745</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K33" t="n">
-        <v>307.3809080913679</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L33" t="n">
         <v>475.3362068029155</v>
@@ -37162,13 +37162,13 @@
         <v>159.7932491856904</v>
       </c>
       <c r="O33" t="n">
-        <v>468.310712103442</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.9848020488506</v>
+        <v>58.68651067701171</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L34" t="n">
         <v>167.1134138445161</v>
@@ -37308,22 +37308,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K35" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L35" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M35" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N35" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O35" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q35" t="n">
         <v>215.9363768081745</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>307.3809080913679</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
@@ -37396,13 +37396,13 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>639.135623529244</v>
+        <v>323.9577264537886</v>
       </c>
       <c r="O36" t="n">
-        <v>123.7353672852765</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>263.475930322974</v>
+        <v>79.78019120842487</v>
       </c>
       <c r="Q36" t="n">
         <v>212.9848020488506</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L37" t="n">
         <v>167.1134138445161</v>
@@ -37545,22 +37545,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K38" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L38" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M38" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N38" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O38" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q38" t="n">
         <v>215.9363768081745</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K39" t="n">
-        <v>42.91567107878936</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L39" t="n">
-        <v>421.2493827492254</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
-        <v>607.1991974616938</v>
+        <v>141.4941337116938</v>
       </c>
       <c r="N39" t="n">
-        <v>639.135623529244</v>
+        <v>471.2000215638512</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620061</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L40" t="n">
         <v>167.1134138445161</v>
@@ -37782,22 +37782,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K41" t="n">
-        <v>370.1830173641764</v>
+        <v>370.1830173641765</v>
       </c>
       <c r="L41" t="n">
-        <v>512.049441146879</v>
+        <v>512.0494411468791</v>
       </c>
       <c r="M41" t="n">
-        <v>586.5279529972037</v>
+        <v>586.5279529972038</v>
       </c>
       <c r="N41" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O41" t="n">
-        <v>503.203231594926</v>
+        <v>503.2032315949261</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4173839182174</v>
+        <v>391.4173839182175</v>
       </c>
       <c r="Q41" t="n">
         <v>215.9363768081745</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K42" t="n">
-        <v>42.91567107878936</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>607.1991974616938</v>
+        <v>367.4208510230305</v>
       </c>
       <c r="N42" t="n">
         <v>639.135623529244</v>
       </c>
       <c r="O42" t="n">
-        <v>517.5976865620061</v>
+        <v>123.7353672852766</v>
       </c>
       <c r="P42" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>86.7624823765187</v>
+        <v>86.76248237651873</v>
       </c>
       <c r="L43" t="n">
         <v>167.1134138445161</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K45" t="n">
         <v>307.3809080913679</v>
       </c>
       <c r="L45" t="n">
-        <v>475.246914376584</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M45" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856904</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620061</v>
+        <v>363.2993951901672</v>
       </c>
       <c r="P45" t="n">
-        <v>79.78019120842481</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.907514313001485</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
